--- a/Data/Vanilla Expanded/Vanilla Furniture Expanded - 1718190143/1718190143_240923.xlsx
+++ b/Data/Vanilla Expanded/Vanilla Furniture Expanded - 1718190143/1718190143_240923.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Vanilla Furniture Expanded - 1718190143\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SteamLibrary\steamapps\common\RimWorld\Mods\RMK\Data\Vanilla Expanded\Vanilla Furniture Expanded - 1718190143\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B562183-3D72-4401-974B-DBBC4297F239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E417432-430A-4B35-B7E7-FFC057D9CC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-3760" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_240923" sheetId="3" r:id="rId1"/>
@@ -5332,22 +5332,22 @@
   <dimension ref="A1:F268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.08203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.4140625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.4140625" style="5"/>
+    <col min="4" max="4" width="26.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
@@ -5551,10 +5551,10 @@
         <v>49</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -5568,10 +5568,10 @@
         <v>52</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>70</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>74</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>78</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>82</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>86</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>94</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>98</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>102</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>106</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>110</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>114</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>118</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>122</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>126</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>130</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>134</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>138</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>142</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>146</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>150</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>154</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>158</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>162</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>166</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>170</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>174</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>178</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>182</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>186</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>190</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>194</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>198</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>202</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>206</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>210</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>214</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>218</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>222</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>226</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>230</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>234</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>238</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>242</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>246</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>250</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>254</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>258</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>262</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>266</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>270</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>272</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>276</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>278</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>282</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>284</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>288</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>290</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>294</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>299</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>303</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>307</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>311</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>315</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>320</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>323</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>328</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>331</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>335</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>337</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>339</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>343</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>347</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>351</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>355</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>359</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>363</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>367</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>371</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>375</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>379</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>383</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>386</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>390</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>394</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>398</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>402</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>406</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>410</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>414</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>416</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>419</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>421</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>425</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>429</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>431</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>435</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>437</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>439</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>441</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>445</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>447</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>452</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>456</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>460</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>464</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>468</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>472</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>476</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>480</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>484</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>488</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>492</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>496</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>500</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>504</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>508</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>512</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>516</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>520</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>524</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>528</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>532</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>536</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>540</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>544</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>548</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>552</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>556</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>560</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>564</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>568</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>572</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>576</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>580</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>584</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>588</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>592</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>597</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>601</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>605</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>609</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>613</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>616</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>619</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>624</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>628</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>630</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>632</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>637</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>641</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>646</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>650</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>654</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>658</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>662</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>666</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>670</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>674</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>678</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>682</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>686</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>689</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>691</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>693</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>695</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>697</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>699</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>702</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>707</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>712</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>716</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>720</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>724</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>727</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>730</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>733</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>736</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>738</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>742</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>745</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>735</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>864</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>867</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>870</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>873</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>876</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>879</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>882</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>885</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>888</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>891</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>894</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>897</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>900</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>903</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>906</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>909</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>912</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>915</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>918</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>921</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>923</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>926</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>929</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>932</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>935</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>938</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>941</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>944</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>947</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>950</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>953</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>956</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>959</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>962</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>965</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>968</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>971</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>974</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>977</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>980</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>983</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>986</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>989</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>768</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>770</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>772</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>992</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>995</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>998</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>1000</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>1003</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>1006</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>1009</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>1012</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>1014</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>1017</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>1020</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>1023</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>1026</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>1029</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>1032</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>1035</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>1038</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>1041</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>1044</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>1047</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>1050</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>1053</v>
       </c>
@@ -9890,18 +9890,18 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.58203125" customWidth="1"/>
-    <col min="6" max="6" width="43.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="35.625" customWidth="1"/>
+    <col min="6" max="6" width="43.625" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>751</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>업라이트 피아노</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>돌 침대</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>매끈하게 다듬은 커다란 석판입니다. 굉장히 불편해서 맨바닥에서 자는 것보다 조금 나은 수준입니다.</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>간단한 침대</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>갈빗대를 붙인 튼튼한 뼈대에 베개까지 있어 조금은 편안합니다.</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>방석</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>부족민의 필수품이나 다름없는 물건. 식탁, 작업장, 그 외 어디서든 사용 가능합니다.</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>긴 의자</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>여러 사람이 동시에 앉을 수도 있는 단순하고 기다란 의자입니다. 없는 것보단 낫지만 딱히 편하진 않습니다. 식탁, 작업장, 그 외 어디서든 사용 가능합니다.</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>등받이 의자</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>식당 밖에서도 쓸 수 있는 편안하고 좋은 의자입니다. 식탁, 작업장, 그 외 어디서든 사용 가능합니다.</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>상 (1x1)</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>759</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>식사대</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>매끈하게 다듬은 허리 높이 탁자입니다. 음식을 먹을 때 씁니다. 주방이나 술집에서 흔히 볼 수 있습니다.</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>돌 주변 모닥불</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>전열기와 횃불의 중간 정도 열기를 내뿜습니다. 조리에도 쓸 수 있습니다. 일반 모닥불보다 오래 갑니다. 모든 열 자원이 그렇듯, 돌 주변 모닥불도 난방에 이용하려면 사방이 닫힌 실내에 설치해야 합니다. 연료를 채우면 불을 다시 지필 수 있습니다.</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>전등 장식 탁자</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>작은 침대 옆 탁자가 빛으로 장식되어 근처 침대를 더 편안하게 만듭니다. 침대 머리에 직접 인접해야 합니다. 같은 침대 근처에 둘 이상의 전등 장식 탁자를 배치해도 효과가 없습니다.</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>라디오</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>먼 옛날 유용하게 쓰이던 장치입니다. 주파수를 잡아서 소리로 들려줍니다. 이 우주에서도 어딘가의 방송 송출국에서 내보내거나 먼 거리를 달려온 옛날 주파수가 종종 잡힙니다.</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>장파 라디오</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>고성능 주파수 수신기입니다. 희미한 신호도 잡아서 옥구슬같이 맑은소리로 들려줍니다.</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>94</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>오락기</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>98</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>작은 음극선관과 조종판이 있는 커다란 기계입니다. 설치된 오락을 즐길 수 있습니다.</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>102</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>구식 컴퓨터</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>구식 설계 기반 데스크탑 컴퓨터로 충돌이 빈번하고 성능이 별로입니다. 사용하면 학습 효과가 조금 상승합니다.</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>현대식 컴퓨터</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>114</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>첨단 기술 기반 컴퓨터로 액정 표시 장치를 이용하며 고성능이라서 작동도 원활합니다. 사용하면 학습 효과가 상승합니다.</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>118</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>피아노</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>122</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>연습하기에도 좋고 즐길 거리도 되는 커다란 피아노입니다. 예술 재능 계발에 아주 유용합니다.</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>126</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>룰렛</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>상판에 부드러운 천을 덮고 그 위에 돌림판을 얹어 룰렛을 즐길 수 있게 만들었습니다. 사교 능력을 훈련하고 운을 시험해볼 수 있습니다.</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>134</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>다트판</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>138</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>동그란 과녁에 다트를 던지는 놀이로 인기도 좋고 즐기면서 마음도 가라앉힐 수 있습니다. 편자 막대나 후프스톤 링보다 높은 확률로 사격 능력을 키울 수 있습니다.</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>142</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>펀치백</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>146</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>속에 옷감을 채워 넣은 커다란 주머니입니다. 주먹을 날리며 화를 풀 수 있습니다. 마음을 가라앉히거나 격투 능력이 향상하는 효과가 있습니다.</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>150</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>야외 등</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>154</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>일정 구역을 밝히는 커다란 전기 조명입니다. 실외에 설치하면서 불이 붙지 않아서 도로 조명에 적합합니다. 밤에만 켜집니다.</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>764</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>일광시간 동안 꺼짐</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>158</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>서류 보관함</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>162</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>종이 문서나 기록물을 일목요연하게 정리할 때 쓰는 작은 가구입니다.</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>무기 진열대</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>170</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>무기 보관에 쓰이는 아주 튼튼한 진열대입니다. 진열대가 실외에 있어도 무기는 소모되지 않습니다.</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>174</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>쓰레기통</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>178</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>주변을 어느 정도 깨끗하게 유지하는 데 도움이 되는 작은 쓰레기통으로, 설치하면 반경 10칸에 있는 쓰레기와 오물이 서서히 사라집니다.</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>182</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>대형 쓰레기통</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>186</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>주변을 깨끗하게 유지하는 데 도움이 되는 커다란 쓰레기통으로, 설치하면 반경 20칸에 있는 쓰레기와 오물이 서서히 사라집니다.</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>190</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>인체 공학 침대</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>194</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>인체 공학적으로 설계한 침대입니다. 척추를 지지하고 체중을 분산하여 수면 질이 높아집니다.</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>198</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>인체 공학 큰 침대</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>202</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>인체 공학적으로 설계하고 두 명이 누울 수 있을 만큼 큰 침대입니다. 척추를 지지하고 체중을 분산하여 수면 질이 높아집니다.</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>206</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>장롱</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>210</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>의류나 그 외 여러 물건을 수납하는 커다란 장롱입니다. 설치하면 주변 모든 침대가 수면 효율이 약간 상승합니다. 침대가 받는 장롱 효과는 한 개가 최대입니다.</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>214</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>인체 공학 의자</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>218</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>신체 곡선에 딱 맞게 설계된 의자입니다. 젖힐 수도 있어서 굉장히 편안합니다.</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>222</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>귀족 사주식 침대</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>226</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>왕이 쓸 법하고, 번쩍이는 금박 사주와 높은 머리 받침이 달린 침대입니다. 엄청나게 안락하고 화려한 데다가 더할 나위 없이 호화롭습니다. 두 명이 누울 수 있습니다.</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>230</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>귀족 협탁</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>234</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>금 세공품으로 장식한 작은 상입니다. 침대맡에 두면 편안함이 상승합니다. 효과를 보려면 침대 머리 부분에 인접해야 합니다. 침대가 받는 협탁 효과는 한 개가 최대입니다.</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>238</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>귀족 옷장</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>242</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>순금 장식과 품위 있는 외관이 돋보이는 호화로운 옷장입니다. 침대 가까이 두면 편안함이 상승합니다. 침대가 받는 옷장 효과는 한 개가 최대입니다.</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>246</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>귀족 의자</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>250</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>높은 등받이에 금으로 테두리를 두르고 전체적으로 완충재를 덧댄 편안한 의자입니다. 식탁, 작업장, 그 외 어디서든 사용 가능합니다.</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>254</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>귀족 안락의자</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>258</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>크고 푹신하고 호화로운 의자입니다. 금으로 테두리를 둘렀습니다. 부유한 지배층에나 어울릴 법합니다. 식탁, 작업장, 그 외 어디서든 사용 가능합니다.</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>262</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>멋진 식사용 상입니다. 금 테를 두르고 끝을 원형 가공하여 흠잡을 데 없습니다. 부유층이나 쓸 법한 물건입니다.</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>266</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>귀족 탁자 (1x1)</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>270</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>멋진 식사용 상입니다. 금 테를 두르고 끝을 원형 가공하여 흠잡을 데 없습니다. 부유층이나 쓸 법한 물건입니다.</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>272</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>귀족 탁자 (2x2)</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>276</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>멋진 식사용 상입니다. 금 테를 두르고 끝을 원형 가공하여 흠잡을 데 없습니다. 부유층이나 쓸 법한 물건입니다.</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>278</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>귀족 탁자 (1x2)</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>282</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>멋진 식사용 상입니다. 금 테를 두르고 끝을 원형 가공하여 흠잡을 데 없습니다. 부유층이나 쓸 법한 물건입니다.</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>284</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>귀족 탁자 (3x3)</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>288</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>멋진 식사용 상입니다. 금 테를 두르고 끝을 원형 가공하여 흠잡을 데 없습니다. 부유층이나 쓸 법한 물건입니다.</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>290</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>귀족 탁자 (2x4)</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>294</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>학습 효과</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>299</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>컴퓨터 활동으로 인한 학습 향상</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>768</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>낮음</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>770</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>높음</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>772</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>최대</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>315</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>가구 확장</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>320</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>가구 확장 모드에 의해 추가된 새로운 가구들입니다.</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>323</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>전자 오락</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>339</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>펀치백을 두들김</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>343</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>tale_noun-&gt;[PAWN_nameDef](은)는 [OBJECT_label]에 화풀이 중</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>347</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>tale_noun-&gt;[PAWN_nameDef](은)는 분노에 찬 눈으로 [OBJECT_label](을)를 쳐다보는 중</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>351</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>tale_noun-&gt;[PAWN_nameDef](은)는 [OBJECT_label]에 주먹질하며 즐기는 중</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>355</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>image-&gt;[PAWN_nameFull](은)는 [OBJECT_label] 앞에서 자세를 잡고 [circumstance_group]</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>359</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>image-&gt;[PAWN_nameFull](은)는 [OBJECT_label]에 주먹을 날리고 [circumstance_group]</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>363</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>circumstance_phrase-&gt;바짝 기장합니다</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>367</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>circumstance_phrase-&gt;긴장을 풀고 안정을 얻음</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>371</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>circumstance_phrase-&gt;가볍게 손목을 주무름</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>375</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>circumstance_phrase-&gt;[AdjectiveAngsty](을)를 표출하는 [angstyverb]</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>379</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>circumstance_phrase-&gt;주먹을 테이프로 감음</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>383</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>circumstance_phrase-&gt;[angstyverb]</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>386</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>desc_sentence-&gt;[Color] 오로라가 뒤에서 빛납니다.</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>390</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>desc_sentence-&gt;멀리서 [Community]의 모습이 보입니다.</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>394</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>desc_sentence-&gt;멀리서 [TerrainFeature]의 모습이 보입니다.</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>398</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>desc_sentence-&gt;[PAWN_nameDef](은)는 과장됐습니다.</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>402</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>desc_sentence-&gt;[PAWN_nameDef](은)는 보기보다 실력이 좋습니다.</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>406</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>컴퓨터 사용함</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>410</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>tale_noun-&gt;[PAWN_nameDef](은)는 [OBJECT_label]에 깊게 집중하는 중</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>414</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>tale_noun-&gt;[PAWN_nameDef](은)는 분노에 찬 눈으로 [OBJECT_label](을)를 쳐다보는 중</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>416</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>tale_noun-&gt;[PAWN_nameDef](은)는 [OBJECT_label](을)를 즐기는 중</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>419</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>image-&gt;[PAWN_nameFull](은)는 [OBJECT_label] 앞에서 자세를 잡고 [circumstance_group]</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>421</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>image-&gt;[PAWN_nameFull](은)는 부셔져라 [OBJECT_label](을)를 두들기고 [circumstance_group]</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>425</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>circumstance_phrase-&gt;전념하는 중</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>429</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>circumstance_phrase-&gt;긴장을 풀고 안정을 얻음</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>431</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>circumstance_phrase-&gt;의자에 깊숙히 몸을 뉘움</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>435</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>desc_sentence-&gt;[Color] 오로라가 뒤에서 빛납니다.</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>437</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>desc_sentence-&gt;멀리서 [Community]의 모습이 보입니다.</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>439</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>desc_sentence-&gt;멀리서 [TerrainFeature]의 모습이 보입니다.</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>441</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>desc_sentence-&gt;[PAWN_nameDef](은)는 화면에 집중했습니다.</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>445</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>desc_sentence-&gt;[PAWN_nameDef](은)는 보기보다 실력이 좋습니다.</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>447</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>기본 가구</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>452</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>간단하고 기본적인 침대, 식탁, 의자, 벤치 등을 만듭니다.</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>774</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>가구</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>778</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>침대, 탁자, 식당 의자, 안락 의자, 옷장, 서랍, 당구대, 포커 테이블, 통풍구, 관 등 여러가지 가구를 만듭니다.</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>480</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>고급 가구</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>484</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>부잣집에서나 볼 듯하고 실용성보다는 미학에 더 가치를 둔 가구를 만듭니다. 귀족 사주식 침대, 귀족 의자, 귀족 탁자, 귀족 안락의자 등입니다.</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>516</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>현대 가구</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>520</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>미학보다는 실용성에 중점을 둔 현대적 가구 제작을 학습합니다. 룰렛, 장롱, 다트판, 펀치백, 인체 공학 침대 등입니다.</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>552</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>쓰레기 처리</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>556</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>쓰레기통 제작 방법을 익힙니다. 설치된 장소는 서서히 깨끗해지는 효과가 있습니다.</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>783</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>기본 전자제품</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>787</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>음극선관 TV, 라디오, 오락기 등과 같은 기본적인 전자 오락거리를 만듭니다.</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>789</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>복합 전자제품</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>791</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>평면 TV, 장파 라디오 등과 같은 복합적인 전자 오락거리를 만듭니다.</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>588</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>바닐라 확장</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>592</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>룰렛 하는 중.</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>597</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>오락기 하는 중.</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>601</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>피아노 치는 중.</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>605</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>다트 던지는 중.</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>609</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>펀치 날리는 중.</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>613</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>컴퓨터 하는 중.</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>616</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>컴퓨터 하는 중.</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>799</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>잔잔한 음악</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>801</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>지금 나오는 음악, 괜찮은 것 같아. 신호에 잡음이 많이 낀 건 아쉽지만.</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>803</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>잔잔한 음악</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>805</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>지금 나오는 음악, 마음에 들어. 내 마음을 어루만지는 것 같아.</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>632</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>듣기 능력</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>637</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>라디오 같은 음향적 즐길 거리의 효과입니다.</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>641</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>돌 주변 모닥불에서 식사 요리</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>646</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>요리</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>650</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>에서 요리</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>654</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>돌 주변 모닥불에서 계획서 작업</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>658</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>작업</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>662</v>
       </c>
@@ -13079,15 +13079,15 @@
       <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>808</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>315</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>320</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>768</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>770</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>772</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>592</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>597</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>601</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>605</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>609</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>613</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>616</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>323</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>447</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>452</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>774</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>778</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>480</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>484</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>516</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>520</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>552</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>556</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>783</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>787</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>789</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>791</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>588</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>632</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>637</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>339</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>343</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>347</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>351</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>355</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>359</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>363</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>367</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>371</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>375</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>379</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>383</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>386</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>390</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>394</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>398</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>402</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>406</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>410</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>414</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>416</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>419</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>421</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>425</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>429</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>431</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>435</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>437</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>439</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>441</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>445</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>50</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>110</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>126</v>
       </c>
@@ -14586,7 +14586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>130</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>134</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>138</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>142</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>146</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>150</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>154</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>764</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>158</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>162</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>820</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>822</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>166</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>170</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>174</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>178</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>182</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>186</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>190</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>194</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>198</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>202</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>206</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>210</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>214</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>218</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>824</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>826</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>222</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>226</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>230</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>234</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>238</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>242</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>246</v>
       </c>
@@ -15146,12 +15146,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>250</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" ref="C130:C161" si="4">IF(B130="",A130,B130)</f>
+        <f t="shared" ref="C130:C155" si="4">IF(B130="",A130,B130)</f>
         <v>ThingDef+Seat_RoyalChair.description</v>
       </c>
       <c r="D130" t="s">
@@ -15162,7 +15162,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>258</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>270</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>272</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>276</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>278</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>282</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>284</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>288</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>290</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>751</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>828</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>830</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>799</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>801</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>803</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>805</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>641</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>646</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>650</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>654</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>658</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>662</v>
       </c>
